--- a/Data/Commodore 64 Breadbin/Data_Breadbin.xlsx
+++ b/Data/Commodore 64 Breadbin/Data_Breadbin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72B829-7EAF-449E-9430-DE266084C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD216A0-CCB0-4FCE-86F4-2A612F619863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t># Commodore Repair Toolbox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Folder name</t>
-  </si>
-  <si>
-    <t>250407-22222</t>
   </si>
   <si>
     <t>Board name in drop-down</t>
   </si>
   <si>
-    <t>250425 OK</t>
-  </si>
-  <si>
-    <t>250407 OK</t>
-  </si>
-  <si>
     <t>Data file</t>
   </si>
   <si>
-    <t>Data 250425.xlsx</t>
+    <t>Data_250407.xlsx</t>
   </si>
   <si>
-    <t>Data 250407.xlsx</t>
+    <t>Data_250425.xlsx</t>
+  </si>
+  <si>
+    <t># Commodore 64 (Breadbin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +75,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -94,7 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,11 +117,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,15 +439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
@@ -460,41 +456,41 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>250407</v>
       </c>
       <c r="B4" s="1">
-        <v>250425</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>250407</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>250425</v>
+      </c>
+      <c r="B5" s="1">
+        <v>250425</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
